--- a/biology/Histoire de la zoologie et de la botanique/Richard_Schodde/Richard_Schodde.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Schodde/Richard_Schodde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Schodde, né le 23 septembre 1936, est un botaniste et ornithologue australien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Schodde a fait ses études supérieures à l'université d'Adélaïde où il a obtenu son doctorat en 1970. Pendant les années 1960, il travailla à la Division of Land Research and Regional Survey du CSIRO et en Papouasie-Nouvelle-Guinée. De 1970 à 1998, il fut directeur de l'Australian National Wildlife Collection (ANWC) à la Division of Wildlife and Ecology du CSIRO, après quoi il devint chercheur universitaire. Pendant ce temps, il dirigea des enquêtes sur la flore et la faune qui ont contribué à la création du parc national de Kakadu et au classement des Tropiques humides du Queensland comme premier site australien du Patrimoine mondial de l'UNESCO. Ses travaux ont abouti à la collecte de près de 50 000 échantillons pour l'ANWC, ainsi que 15 000 échantillons de tissus congelés pour les études moléculaires.
 Schodde a également été un membre correspondant de l'American Ornithologists' Union, président de la commission permanente de la Nomenclature ornithologique du Comité ornithologique international et animateur de colloques sur l'origine et l'évolution des oiseaux australasiens aux Congrès ornithologiques internationaux de 1974 à 1990.
@@ -543,7 +557,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1975 – Interim list of Australian songbirds: Passerines. RAOU: Melbourne.
 1980 – Nocturnal Birds of Australia. (With Ian J. Mason. Illustrations by Jeremy Boot). Lansdowne Editions: Melbourne. Whitley Medal 1981).
